--- a/R_prikazy_PAS.xlsx
+++ b/R_prikazy_PAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\pirpava na zapocet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\Priprava_na_zapocet_PAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563651CB-2787-4EB1-A65A-987C52F6CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B1B3D-F13C-4FD4-AE85-119F71FFB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prikazy_z_cviceni" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="296">
   <si>
     <t>Kategorie</t>
   </si>
@@ -812,13 +812,397 @@
   </si>
   <si>
     <t>tapply(x, g, mean)</t>
+  </si>
+  <si>
+    <t>ANO →</t>
+  </si>
+  <si>
+    <t>NE →</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Počítám </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>počet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kusy, lidi, chyby)?</t>
+    </r>
+  </si>
+  <si>
+    <t>Krok 2</t>
+  </si>
+  <si>
+    <t>Krok 7</t>
+  </si>
+  <si>
+    <t>dhyper()</t>
+  </si>
+  <si>
+    <t>Krok 3</t>
+  </si>
+  <si>
+    <t>Krok 4</t>
+  </si>
+  <si>
+    <t>dpois()</t>
+  </si>
+  <si>
+    <t>Krok 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Počítám </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pokus do 1. úspěchu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>dgeom()</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Krok 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je rozdělení </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normální</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dnorm()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pnorm()</t>
+    </r>
+  </si>
+  <si>
+    <t>qnorm()</t>
+  </si>
+  <si>
+    <t>Krok</t>
+  </si>
+  <si>
+    <t>Rozhodovací otázka</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jsou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>známé počty úspěchů a neúspěchů v populaci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je pevný počet pokusů </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a stejná pravděpodobnost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Počítám události za </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>čas / prostor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je proměnná </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spojitá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (čas, délka, hmotnost)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chci </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kvantil normálního rozdělení</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Studentovo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t-rozdělení</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>dbinom()/pbinom .. Zaleží na: přesný počet .. Rozsah od do</t>
+  </si>
+  <si>
+    <t>rozdělení</t>
+  </si>
+  <si>
+    <t>PMF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pravděpodobnost, že náhodná proměnná nabude </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>přesně hodnoty k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → (P(X = k))</t>
+    </r>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pravděpodobnost, že náhodná proměnná nabude </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hodnoty menší nebo rovné k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → (P(X &lt;= k ))</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +1215,19 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -858,13 +1255,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,8 +1299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:D95">
-  <autoFilter ref="A1:D95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:D97">
+  <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kategorie"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Příkaz"/>
@@ -893,6 +1308,19 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Typický příklad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FB98539-1919-4F58-A740-AA0D35AE0CC2}" name="Tabulka2" displayName="Tabulka2" ref="A100:D110" totalsRowShown="0">
+  <autoFilter ref="A100:D110" xr:uid="{1FB98539-1919-4F58-A740-AA0D35AE0CC2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F1E281C3-9746-459A-8A7F-5F8DDA460F17}" name="Krok"/>
+    <tableColumn id="2" xr3:uid="{3AE147CD-678D-42BD-AE69-2A2B2539297E}" name="Rozhodovací otázka"/>
+    <tableColumn id="3" xr3:uid="{9359C94A-CAFF-4AA1-80B1-05A5575910A1}" name="ANO →"/>
+    <tableColumn id="4" xr3:uid="{98724E49-D8C4-4AE0-8F40-EAB320198832}" name="NE →"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1181,14 +1609,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1196,7 +1624,7 @@
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1462,13 +1890,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1482,7 +1910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1496,7 +1924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1524,7 +1952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1538,7 +1966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1552,7 +1980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -1566,13 +1994,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -1586,7 +2014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -1600,13 +2028,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -1620,7 +2048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -1634,7 +2062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -1648,7 +2076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
@@ -1662,7 +2090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
@@ -1676,7 +2104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
@@ -1690,13 +2118,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -1710,7 +2138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -1724,7 +2152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
@@ -1738,7 +2166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -1752,7 +2180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1766,7 +2194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -1780,7 +2208,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -1794,7 +2222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -1808,7 +2236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -1822,7 +2250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>106</v>
       </c>
@@ -1836,7 +2264,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -1850,7 +2278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -1864,7 +2292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -1878,13 +2306,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>146</v>
       </c>
@@ -1898,7 +2326,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -1912,7 +2340,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -1926,7 +2354,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
@@ -1940,13 +2368,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
@@ -1960,7 +2388,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>159</v>
       </c>
@@ -1974,7 +2402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>159</v>
       </c>
@@ -1988,7 +2416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -2002,7 +2430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -2016,7 +2444,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>159</v>
       </c>
@@ -2030,7 +2458,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>159</v>
       </c>
@@ -2044,13 +2472,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>181</v>
       </c>
@@ -2064,13 +2492,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>185</v>
       </c>
@@ -2084,7 +2512,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>185</v>
       </c>
@@ -2098,7 +2526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>185</v>
       </c>
@@ -2112,7 +2540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>185</v>
       </c>
@@ -2126,7 +2554,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>185</v>
       </c>
@@ -2140,7 +2568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>185</v>
       </c>
@@ -2154,13 +2582,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -2174,7 +2602,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>204</v>
       </c>
@@ -2188,7 +2616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -2202,7 +2630,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>204</v>
       </c>
@@ -2216,7 +2644,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>204</v>
       </c>
@@ -2230,7 +2658,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>204</v>
       </c>
@@ -2244,7 +2672,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>204</v>
       </c>
@@ -2258,7 +2686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>204</v>
       </c>
@@ -2272,7 +2700,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>204</v>
       </c>
@@ -2286,7 +2714,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>204</v>
       </c>
@@ -2300,13 +2728,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>235</v>
       </c>
@@ -2320,7 +2748,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>235</v>
       </c>
@@ -2334,7 +2762,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>235</v>
       </c>
@@ -2348,7 +2776,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>235</v>
       </c>
@@ -2362,7 +2790,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>235</v>
       </c>
@@ -2376,7 +2804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>235</v>
       </c>
@@ -2390,7 +2818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>235</v>
       </c>
@@ -2404,44 +2832,240 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+    <row r="93" spans="1:4" ht="30">
+      <c r="A93" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:4" ht="30">
+      <c r="A94" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A96" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>263</v>
       </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30">
+      <c r="A101" s="6">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30">
+      <c r="A102" s="6">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30">
+      <c r="A103" s="6">
+        <v>3</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30">
+      <c r="A104" s="6">
+        <v>4</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30">
+      <c r="A105" s="6">
+        <v>5</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="6">
+        <v>6</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30">
+      <c r="A107" s="6">
+        <v>7</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30">
+      <c r="A109" s="6">
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="6">
+        <v>10</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/R_prikazy_PAS.xlsx
+++ b/R_prikazy_PAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\Priprava_na_zapocet_PAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B1B3D-F13C-4FD4-AE85-119F71FFB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D11FED-DF81-4F0E-B06B-764F7BF9C6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1613,7 +1613,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
